--- a/predictions/single/Retinopatía proliferativa.xlsx
+++ b/predictions/single/Retinopatía proliferativa.xlsx
@@ -457,10 +457,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.342219478233402</v>
+        <v>0.3413421661818628</v>
       </c>
       <c r="C2" t="n">
-        <v>0.99763616318217</v>
+        <v>0.9976452664505828</v>
       </c>
     </row>
     <row r="3">
@@ -470,10 +470,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.342219478233402</v>
+        <v>0.3413421661818628</v>
       </c>
       <c r="C3" t="n">
-        <v>0.99763616318217</v>
+        <v>0.9976452664505828</v>
       </c>
     </row>
     <row r="4">
@@ -483,10 +483,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.342219478233402</v>
+        <v>0.3413421661818628</v>
       </c>
       <c r="C4" t="n">
-        <v>0.99763616318217</v>
+        <v>0.9976452664505828</v>
       </c>
     </row>
   </sheetData>

--- a/predictions/single/Retinopatía proliferativa.xlsx
+++ b/predictions/single/Retinopatía proliferativa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,11 @@
           <t>R2</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Tipo</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -457,10 +462,15 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3413421661818628</v>
+        <v>0.3421150429834521</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9976452664505828</v>
+        <v>0.9976345621564433</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -470,10 +480,15 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.3413421661818628</v>
+        <v>0.3421150429834521</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9976452664505828</v>
+        <v>0.9976345621564433</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -483,10 +498,15 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.3413421661818628</v>
+        <v>0.3421150429834521</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9976452664505828</v>
+        <v>0.9976345621564433</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
       </c>
     </row>
   </sheetData>
